--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY13"/>
+  <dimension ref="A1:AY17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814303</v>
+        <v>111814212</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540600.641023421</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R2" t="n">
-        <v>7247517.393825463</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813938</v>
+        <v>111814047</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +808,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540654.849203686</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R3" t="n">
-        <v>7247498.096959669</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,6 +885,11 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC3" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -912,7 +917,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813872</v>
+        <v>111813745</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -960,10 +965,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540557.5018987871</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R4" t="n">
-        <v>7247552.715308581</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,6 +1021,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1032,7 +1052,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814135</v>
+        <v>111814303</v>
       </c>
       <c r="B5" t="n">
         <v>90087</v>
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540661.0419420782</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R5" t="n">
-        <v>7247564.172119373</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814047</v>
+        <v>111814152</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1160,25 +1180,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1191,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540633.6855369165</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R6" t="n">
-        <v>7247516.598344535</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1237,11 +1257,6 @@
       <c r="AB6" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC6" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1269,7 +1284,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111813745</v>
+        <v>111813872</v>
       </c>
       <c r="B7" t="n">
         <v>56398</v>
@@ -1317,10 +1332,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540568.950047517</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R7" t="n">
-        <v>7247601.73830481</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1373,21 +1388,6 @@
       </c>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1404,10 +1404,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813785</v>
+        <v>111814119</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1420,21 +1420,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1447,10 +1447,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540570.9514120822</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R8" t="n">
-        <v>7247577.960198429</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111813707</v>
+        <v>111814135</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1532,35 +1532,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1568,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540647.037727406</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R9" t="n">
-        <v>7247579.013394679</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1622,23 +1617,9 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1655,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814212</v>
+        <v>111813938</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1671,21 +1652,21 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1698,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540635.9369002836</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R10" t="n">
-        <v>7247595.565451766</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1771,7 +1752,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814119</v>
+        <v>111813975</v>
       </c>
       <c r="B11" t="n">
         <v>89423</v>
@@ -1814,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540683.0369185829</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R11" t="n">
-        <v>7247576.171207689</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1887,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814152</v>
+        <v>111813785</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1903,21 +1884,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1911,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540661.0419420782</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R12" t="n">
-        <v>7247564.172119373</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2003,10 +1984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111813975</v>
+        <v>111813707</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,26 +2000,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2046,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540643.7191088985</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R13" t="n">
-        <v>7247516.737328541</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2100,9 +2086,23 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2116,6 +2116,539 @@
         </is>
       </c>
       <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>111825245</v>
+      </c>
+      <c r="B14" t="n">
+        <v>89745</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2062</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ulltickeporing</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Skeletocutis brevispora</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>540641.3816113799</v>
+      </c>
+      <c r="R14" t="n">
+        <v>7247564.734995849</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="Z14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AB14" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC14" t="inlineStr">
+        <is>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>ullticka</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>111825158</v>
+      </c>
+      <c r="B15" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>540641.3816113799</v>
+      </c>
+      <c r="R15" t="n">
+        <v>7247564.734995849</v>
+      </c>
+      <c r="S15" t="n">
+        <v>10</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="Z15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Med ulltickeporing</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>111825098</v>
+      </c>
+      <c r="B16" t="n">
+        <v>89845</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>VU</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1209</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Rynkskinn</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Phlebia centrifuga</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>540641.3816113799</v>
+      </c>
+      <c r="R16" t="n">
+        <v>7247564.734995849</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="Z16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AB16" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>111825340</v>
+      </c>
+      <c r="B17" t="n">
+        <v>89686</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>658</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Rhodofomes roseus</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>540641.3816113799</v>
+      </c>
+      <c r="R17" t="n">
+        <v>7247564.734995849</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AB17" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814212</v>
+        <v>111813872</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540635.9369002836</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R2" t="n">
-        <v>7247595.565451766</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814047</v>
+        <v>111814119</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -839,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540633.6855369165</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R3" t="n">
-        <v>7247516.598344535</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -885,11 +889,6 @@
       <c r="AB3" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC3" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -917,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813745</v>
+        <v>111814303</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,35 +928,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -965,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540568.950047517</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R4" t="n">
-        <v>7247601.73830481</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1019,23 +1013,9 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1052,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814303</v>
+        <v>111813938</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1064,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1095,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540600.641023421</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R5" t="n">
-        <v>7247517.393825463</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1168,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814152</v>
+        <v>111814212</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1184,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1211,10 +1191,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540661.0419420782</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R6" t="n">
-        <v>7247564.172119373</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1284,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111813872</v>
+        <v>111814152</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1300,31 +1280,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1332,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540557.5018987871</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R7" t="n">
-        <v>7247552.715308581</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1386,6 +1361,7 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
       </c>
@@ -1404,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814119</v>
+        <v>111813785</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1420,21 +1396,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1447,10 +1423,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540683.0369185829</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R8" t="n">
-        <v>7247576.171207689</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1520,7 +1496,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814135</v>
+        <v>111814047</v>
       </c>
       <c r="B9" t="n">
         <v>90087</v>
@@ -1563,10 +1539,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540661.0419420782</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R9" t="n">
-        <v>7247564.172119373</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1609,6 +1585,11 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1636,7 +1617,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111813938</v>
+        <v>111813975</v>
       </c>
       <c r="B10" t="n">
         <v>89423</v>
@@ -1679,10 +1660,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540654.849203686</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R10" t="n">
-        <v>7247498.096959669</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1752,10 +1733,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111813975</v>
+        <v>111813745</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1768,26 +1749,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1795,10 +1781,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540643.7191088985</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R11" t="n">
-        <v>7247516.737328541</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1849,9 +1835,23 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1868,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111813785</v>
+        <v>111814135</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1880,25 +1880,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1911,10 +1911,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540570.9514120822</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R12" t="n">
-        <v>7247577.960198429</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825245</v>
+        <v>111825098</v>
       </c>
       <c r="B14" t="n">
-        <v>89745</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2135,21 +2135,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2062</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2391,10 +2391,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825098</v>
+        <v>111825340</v>
       </c>
       <c r="B16" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2403,28 +2403,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2484,7 +2488,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2496,21 +2500,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2527,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111825340</v>
+        <v>111825245</v>
       </c>
       <c r="B17" t="n">
-        <v>89686</v>
+        <v>89745</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2539,32 +2528,28 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>658</v>
+        <v>2062</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>Niemelä</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
@@ -2624,7 +2609,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2636,6 +2621,21 @@
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>ullticka</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY17"/>
+  <dimension ref="A1:AY18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813872</v>
+        <v>111814135</v>
       </c>
       <c r="B2" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,35 +692,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -728,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540557.5018987871</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R2" t="n">
-        <v>7247552.715308581</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -782,6 +777,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -800,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814119</v>
+        <v>111814152</v>
       </c>
       <c r="B3" t="n">
         <v>89423</v>
@@ -843,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540683.0369185829</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R3" t="n">
-        <v>7247576.171207689</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -916,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111814303</v>
+        <v>111813872</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,30 +924,35 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -959,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540600.641023421</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R4" t="n">
-        <v>7247517.393825463</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1013,7 +1014,6 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
       </c>
@@ -1032,10 +1032,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111813938</v>
+        <v>111814303</v>
       </c>
       <c r="B5" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,25 +1044,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1075,10 +1075,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540654.849203686</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R5" t="n">
-        <v>7247498.096959669</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,10 +1148,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814212</v>
+        <v>111813938</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1164,21 +1164,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1191,10 +1191,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540635.9369002836</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R6" t="n">
-        <v>7247595.565451766</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814152</v>
+        <v>111813785</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1280,21 +1280,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1307,10 +1307,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540661.0419420782</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R7" t="n">
-        <v>7247564.172119373</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,10 +1380,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813785</v>
+        <v>111813707</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1396,26 +1396,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1423,10 +1428,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540570.9514120822</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R8" t="n">
-        <v>7247577.960198429</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1477,9 +1482,23 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
-      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1496,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814047</v>
+        <v>111814212</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1508,25 +1527,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1539,10 +1558,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540633.6855369165</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R9" t="n">
-        <v>7247516.598344535</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1585,11 +1604,6 @@
       <c r="AB9" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1617,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111813975</v>
+        <v>111813745</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1633,26 +1647,31 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1660,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540643.7191088985</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R10" t="n">
-        <v>7247516.737328541</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1714,9 +1733,23 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1733,10 +1766,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111813745</v>
+        <v>111814119</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1749,31 +1782,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1781,10 +1809,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540568.950047517</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R11" t="n">
-        <v>7247601.73830481</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1835,23 +1863,9 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1868,7 +1882,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814135</v>
+        <v>111814047</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1911,10 +1925,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540661.0419420782</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R12" t="n">
-        <v>7247564.172119373</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1957,6 +1971,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1984,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111813707</v>
+        <v>111813975</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,31 +2019,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2032,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540647.037727406</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R13" t="n">
-        <v>7247579.013394679</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2086,23 +2100,9 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825098</v>
+        <v>111825158</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2255,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825158</v>
+        <v>111825245</v>
       </c>
       <c r="B15" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,25 +2267,25 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
@@ -2348,7 +2348,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2363,17 +2363,17 @@
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK15" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO15" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT15" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111825245</v>
+        <v>111825098</v>
       </c>
       <c r="B17" t="n">
-        <v>89745</v>
+        <v>89845</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2532,21 +2532,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2062</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2624,17 +2624,17 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2649,6 +2649,126 @@
         </is>
       </c>
       <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>111905851</v>
+      </c>
+      <c r="B18" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>540642.8745156997</v>
+      </c>
+      <c r="R18" t="n">
+        <v>7247577.702774134</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2023-08-13</t>
+        </is>
+      </c>
+      <c r="AB18" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814135</v>
+        <v>111813975</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540661.0419420782</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R2" t="n">
-        <v>7247564.172119373</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814152</v>
+        <v>111814119</v>
       </c>
       <c r="B3" t="n">
         <v>89423</v>
@@ -839,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540661.0419420782</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R3" t="n">
-        <v>7247564.172119373</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,7 +912,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813872</v>
+        <v>111813707</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540557.5018987871</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R4" t="n">
-        <v>7247552.715308581</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,6 +1016,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1032,10 +1047,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814303</v>
+        <v>111813872</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1044,30 +1059,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1075,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540600.641023421</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R5" t="n">
-        <v>7247517.393825463</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1129,7 +1149,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1264,10 +1283,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111813785</v>
+        <v>111814135</v>
       </c>
       <c r="B7" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1276,25 +1295,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1307,10 +1326,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540570.9514120822</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R7" t="n">
-        <v>7247577.960198429</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,10 +1399,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813707</v>
+        <v>111814303</v>
       </c>
       <c r="B8" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1392,35 +1411,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
@@ -1428,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540647.037727406</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R8" t="n">
-        <v>7247579.013394679</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1482,23 +1496,9 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ8" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO8" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT8" t="inlineStr"/>
       <c r="AW8" t="inlineStr">
@@ -1515,7 +1515,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814212</v>
+        <v>111813785</v>
       </c>
       <c r="B9" t="n">
         <v>89405</v>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540635.9369002836</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R9" t="n">
-        <v>7247595.565451766</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111813745</v>
+        <v>111814047</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1643,35 +1643,30 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1679,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540568.950047517</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R10" t="n">
-        <v>7247601.73830481</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1727,29 +1722,20 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1766,10 +1752,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814119</v>
+        <v>111814212</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1782,21 +1768,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1809,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540683.0369185829</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R11" t="n">
-        <v>7247576.171207689</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1882,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814047</v>
+        <v>111814152</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1894,25 +1880,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1925,10 +1911,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540633.6855369165</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R12" t="n">
-        <v>7247516.598344535</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1971,11 +1957,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2003,10 +1984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111813975</v>
+        <v>111813745</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,26 +2000,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2046,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540643.7191088985</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R13" t="n">
-        <v>7247516.737328541</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2100,9 +2086,23 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825158</v>
+        <v>111825245</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825245</v>
+        <v>111825340</v>
       </c>
       <c r="B15" t="n">
-        <v>89745</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,28 +2267,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2062</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2348,7 +2352,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2360,21 +2364,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2391,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825340</v>
+        <v>111825158</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2407,28 +2396,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2488,7 +2473,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2500,6 +2485,21 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2652,10 +2652,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111905851</v>
+        <v>111939435</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2668,31 +2668,26 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2700,10 +2695,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540642.8745156997</v>
+        <v>540686.0154365924</v>
       </c>
       <c r="R18" t="n">
-        <v>7247577.702774134</v>
+        <v>7247572.453681136</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2730,7 +2725,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2740,7 +2735,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-13</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2754,8 +2749,29 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL18" t="inlineStr">
+        <is>
+          <t>Gammal gran</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal gran</t>
+        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY18"/>
+  <dimension ref="A1:AY29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813975</v>
+        <v>111814047</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540643.7191088985</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R2" t="n">
-        <v>7247516.737328541</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,6 +769,11 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC2" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -796,7 +801,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814119</v>
+        <v>111813975</v>
       </c>
       <c r="B3" t="n">
         <v>89423</v>
@@ -839,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540683.0369185829</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R3" t="n">
-        <v>7247576.171207689</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -912,10 +917,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813707</v>
+        <v>111813938</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,31 +933,26 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -960,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540647.037727406</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R4" t="n">
-        <v>7247579.013394679</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1014,23 +1014,9 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1047,10 +1033,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111813872</v>
+        <v>111814135</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,35 +1045,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1095,10 +1076,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540557.5018987871</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R5" t="n">
-        <v>7247552.715308581</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,6 +1130,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1167,7 +1149,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111813938</v>
+        <v>111814119</v>
       </c>
       <c r="B6" t="n">
         <v>89423</v>
@@ -1210,10 +1192,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540654.849203686</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R6" t="n">
-        <v>7247498.096959669</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,10 +1265,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814135</v>
+        <v>111813707</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1295,30 +1277,35 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1326,10 +1313,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540661.0419420782</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R7" t="n">
-        <v>7247564.172119373</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1380,9 +1367,23 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
-      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO7" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1399,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814303</v>
+        <v>111813785</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1411,25 +1412,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1443,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540600.641023421</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R8" t="n">
-        <v>7247517.393825463</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1515,10 +1516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111813785</v>
+        <v>111813872</v>
       </c>
       <c r="B9" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1531,26 +1532,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1558,10 +1564,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540570.9514120822</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R9" t="n">
-        <v>7247577.960198429</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1612,7 +1618,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1631,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814047</v>
+        <v>111813745</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1643,30 +1648,35 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
-      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1674,10 +1684,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540633.6855369165</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R10" t="n">
-        <v>7247516.598344535</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1722,20 +1732,29 @@
           <t>11:00</t>
         </is>
       </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikligt</t>
-        </is>
-      </c>
       <c r="AD10" t="b">
         <v>0</v>
       </c>
       <c r="AE10" t="b">
         <v>0</v>
       </c>
-      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1752,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814212</v>
+        <v>111814152</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1768,21 +1787,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1795,10 +1814,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540635.9369002836</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R11" t="n">
-        <v>7247595.565451766</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1868,10 +1887,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814152</v>
+        <v>111814212</v>
       </c>
       <c r="B12" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,21 +1903,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1911,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540661.0419420782</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R12" t="n">
-        <v>7247564.172119373</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1984,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111813745</v>
+        <v>111814303</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1996,35 +2015,30 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2032,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540568.950047517</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R13" t="n">
-        <v>7247601.73830481</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2086,23 +2100,9 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825245</v>
+        <v>111825158</v>
       </c>
       <c r="B14" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2380,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825158</v>
+        <v>111825245</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,25 +2392,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2652,10 +2652,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>111939435</v>
+        <v>111905851</v>
       </c>
       <c r="B18" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2668,26 +2668,31 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
@@ -2695,10 +2700,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540686.0154365924</v>
+        <v>540642.8745156997</v>
       </c>
       <c r="R18" t="n">
-        <v>7247572.453681136</v>
+        <v>7247577.702774134</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2725,7 +2730,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="Z18" t="inlineStr">
@@ -2735,7 +2740,7 @@
       </c>
       <c r="AA18" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>2023-08-13</t>
         </is>
       </c>
       <c r="AB18" t="inlineStr">
@@ -2749,29 +2754,8 @@
       <c r="AE18" t="b">
         <v>0</v>
       </c>
-      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ18" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK18" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL18" t="inlineStr">
-        <is>
-          <t>Gammal gran</t>
-        </is>
-      </c>
-      <c r="AO18" t="inlineStr">
-        <is>
-          <t>Picea abies # Gammal gran</t>
-        </is>
       </c>
       <c r="AT18" t="inlineStr"/>
       <c r="AW18" t="inlineStr">
@@ -2785,6 +2769,1339 @@
         </is>
       </c>
       <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>111928431</v>
+      </c>
+      <c r="B19" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>540531.3567734783</v>
+      </c>
+      <c r="R19" t="n">
+        <v>7247629.200666801</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB19" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>111928819</v>
+      </c>
+      <c r="B20" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>540499.9912827559</v>
+      </c>
+      <c r="R20" t="n">
+        <v>7247569.044437566</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB20" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>111927932</v>
+      </c>
+      <c r="B21" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>540603.1302205247</v>
+      </c>
+      <c r="R21" t="n">
+        <v>7247579.240674701</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB21" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>111928767</v>
+      </c>
+      <c r="B22" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>540472.3994548032</v>
+      </c>
+      <c r="R22" t="n">
+        <v>7247568.663664464</v>
+      </c>
+      <c r="S22" t="n">
+        <v>10</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB22" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>111928182</v>
+      </c>
+      <c r="B23" t="n">
+        <v>56398</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>540577.6309829853</v>
+      </c>
+      <c r="R23" t="n">
+        <v>7247608.958296298</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB23" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>111928641</v>
+      </c>
+      <c r="B24" t="n">
+        <v>77515</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>540501.4762728031</v>
+      </c>
+      <c r="R24" t="n">
+        <v>7247612.91764803</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB24" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC24" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>111928149</v>
+      </c>
+      <c r="B25" t="n">
+        <v>90087</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>LC</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>3298</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Trådticka</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Climacocystis borealis</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>540584.6159017456</v>
+      </c>
+      <c r="R25" t="n">
+        <v>7247527.195818389</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>111929133</v>
+      </c>
+      <c r="B26" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>540588.7198738471</v>
+      </c>
+      <c r="R26" t="n">
+        <v>7247593.241230446</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB26" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>111927812</v>
+      </c>
+      <c r="B27" t="n">
+        <v>85715</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>510</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Doftskinn</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Cystostereum murrayi</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>540626.0944185018</v>
+      </c>
+      <c r="R27" t="n">
+        <v>7247581.646826447</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB27" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ27" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK27" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL27" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO27" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>111928864</v>
+      </c>
+      <c r="B28" t="n">
+        <v>89405</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>540588.0224133076</v>
+      </c>
+      <c r="R28" t="n">
+        <v>7247583.208085935</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>111939435</v>
+      </c>
+      <c r="B29" t="n">
+        <v>89423</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>5432</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Granticka</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Porodaedalea chrysoloma</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Matsdal, granskog, Ås lm</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>540686.0154365924</v>
+      </c>
+      <c r="R29" t="n">
+        <v>7247572.453681136</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västerbotten</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Åsele lappmark</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Vilhelmina</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL29" t="inlineStr">
+        <is>
+          <t>Gammal gran</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Picea abies # Gammal gran</t>
+        </is>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Roger Olofsson</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111814047</v>
+        <v>111813785</v>
       </c>
       <c r="B2" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -692,25 +692,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540633.6855369165</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R2" t="n">
-        <v>7247516.598344535</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -769,11 +769,6 @@
       <c r="AB2" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC2" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813975</v>
+        <v>111813707</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,26 +812,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540643.7191088985</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R3" t="n">
-        <v>7247516.737328541</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,9 +898,23 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -917,10 +931,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813938</v>
+        <v>111814135</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -929,25 +943,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -960,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540654.849203686</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R4" t="n">
-        <v>7247498.096959669</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1033,7 +1047,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814135</v>
+        <v>111814303</v>
       </c>
       <c r="B5" t="n">
         <v>90087</v>
@@ -1076,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540661.0419420782</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R5" t="n">
-        <v>7247564.172119373</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1149,10 +1163,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814119</v>
+        <v>111814212</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1165,21 +1179,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1192,10 +1206,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540683.0369185829</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R6" t="n">
-        <v>7247576.171207689</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1265,10 +1279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111813707</v>
+        <v>111814152</v>
       </c>
       <c r="B7" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1281,31 +1295,26 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N7" t="inlineStr"/>
       <c r="P7" t="inlineStr">
         <is>
@@ -1313,10 +1322,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540647.037727406</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R7" t="n">
-        <v>7247579.013394679</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1367,23 +1376,9 @@
       <c r="AE7" t="b">
         <v>0</v>
       </c>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ7" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO7" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT7" t="inlineStr"/>
       <c r="AW7" t="inlineStr">
@@ -1400,10 +1395,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813785</v>
+        <v>111813938</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1416,21 +1411,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1443,10 +1438,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540570.9514120822</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R8" t="n">
-        <v>7247577.960198429</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,10 +1511,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111813872</v>
+        <v>111814119</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1532,31 +1527,26 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1564,10 +1554,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540557.5018987871</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R9" t="n">
-        <v>7247552.715308581</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1618,6 +1608,7 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1636,10 +1627,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111813745</v>
+        <v>111813975</v>
       </c>
       <c r="B10" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1652,31 +1643,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1684,10 +1670,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540568.950047517</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R10" t="n">
-        <v>7247601.73830481</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1738,23 +1724,9 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ10" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO10" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1771,10 +1743,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814152</v>
+        <v>111813872</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1787,26 +1759,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1814,10 +1791,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540661.0419420782</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R11" t="n">
-        <v>7247564.172119373</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1868,7 +1845,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1887,10 +1863,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814212</v>
+        <v>111814047</v>
       </c>
       <c r="B12" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1899,25 +1875,25 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1906,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540635.9369002836</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R12" t="n">
-        <v>7247595.565451766</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1976,6 +1952,11 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC12" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -2003,10 +1984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814303</v>
+        <v>111813745</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,30 +1996,35 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2046,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540600.641023421</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R13" t="n">
-        <v>7247517.393825463</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2100,9 +2086,23 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825158</v>
+        <v>111825245</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2212,7 +2212,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2227,17 +2227,17 @@
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO14" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT14" t="inlineStr"/>
@@ -2255,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825340</v>
+        <v>111825098</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,32 +2267,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2352,7 +2348,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2364,6 +2360,21 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2380,10 +2391,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825245</v>
+        <v>111825340</v>
       </c>
       <c r="B16" t="n">
-        <v>89745</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,28 +2403,32 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2062</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2473,7 +2488,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2485,21 +2500,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2516,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111825098</v>
+        <v>111825158</v>
       </c>
       <c r="B17" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,25 +2528,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2772,10 +2772,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111928431</v>
+        <v>111928182</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2788,26 +2788,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2815,10 +2820,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540531.3567734783</v>
+        <v>540577.6309829853</v>
       </c>
       <c r="R19" t="n">
-        <v>7247629.200666801</v>
+        <v>7247608.958296298</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2869,7 +2874,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2888,10 +2892,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111928819</v>
+        <v>111927932</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2900,35 +2904,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2936,10 +2935,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540499.9912827559</v>
+        <v>540603.1302205247</v>
       </c>
       <c r="R20" t="n">
-        <v>7247569.044437566</v>
+        <v>7247579.240674701</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2990,6 +2989,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3008,10 +3008,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111927932</v>
+        <v>111928767</v>
       </c>
       <c r="B21" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3020,30 +3020,35 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3051,10 +3056,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540603.1302205247</v>
+        <v>540472.3994548032</v>
       </c>
       <c r="R21" t="n">
-        <v>7247579.240674701</v>
+        <v>7247568.663664464</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3105,7 +3110,6 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3124,10 +3128,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111928767</v>
+        <v>111928864</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3140,31 +3144,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3172,10 +3171,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>540472.3994548032</v>
+        <v>540588.0224133076</v>
       </c>
       <c r="R22" t="n">
-        <v>7247568.663664464</v>
+        <v>7247583.208085935</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3226,6 +3225,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3244,10 +3244,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111928182</v>
+        <v>111928149</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3256,35 +3256,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3292,10 +3287,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>540577.6309829853</v>
+        <v>540584.6159017456</v>
       </c>
       <c r="R23" t="n">
-        <v>7247608.958296298</v>
+        <v>7247527.195818389</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3346,6 +3341,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3364,10 +3360,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111928641</v>
+        <v>111929133</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>89423</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3380,21 +3376,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3407,10 +3403,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540501.4762728031</v>
+        <v>540588.7198738471</v>
       </c>
       <c r="R24" t="n">
-        <v>7247612.91764803</v>
+        <v>7247593.241230446</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3453,11 +3449,6 @@
       <c r="AB24" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC24" t="inlineStr">
-        <is>
-          <t>Förekommer i området</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3485,10 +3476,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111928149</v>
+        <v>111927812</v>
       </c>
       <c r="B25" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3497,25 +3488,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3528,10 +3519,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>540584.6159017456</v>
+        <v>540626.0944185018</v>
       </c>
       <c r="R25" t="n">
-        <v>7247527.195818389</v>
+        <v>7247581.646826447</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3585,6 +3576,26 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3601,7 +3612,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111929133</v>
+        <v>111928431</v>
       </c>
       <c r="B26" t="n">
         <v>89423</v>
@@ -3644,10 +3655,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>540588.7198738471</v>
+        <v>540531.3567734783</v>
       </c>
       <c r="R26" t="n">
-        <v>7247593.241230446</v>
+        <v>7247629.200666801</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3717,10 +3728,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111927812</v>
+        <v>111928819</v>
       </c>
       <c r="B27" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3733,26 +3744,31 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3760,10 +3776,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540626.0944185018</v>
+        <v>540499.9912827559</v>
       </c>
       <c r="R27" t="n">
-        <v>7247581.646826447</v>
+        <v>7247569.044437566</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3814,29 +3830,8 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
-      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL27" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3853,10 +3848,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111928864</v>
+        <v>111928641</v>
       </c>
       <c r="B28" t="n">
-        <v>89405</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3869,21 +3864,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3896,10 +3891,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540588.0224133076</v>
+        <v>540501.4762728031</v>
       </c>
       <c r="R28" t="n">
-        <v>7247583.208085935</v>
+        <v>7247612.91764803</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3942,6 +3937,11 @@
       <c r="AB28" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
         </is>
       </c>
       <c r="AD28" t="b">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -796,7 +796,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813707</v>
+        <v>111813745</v>
       </c>
       <c r="B3" t="n">
         <v>56398</v>
@@ -844,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540647.037727406</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R3" t="n">
-        <v>7247579.013394679</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -931,10 +931,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111814135</v>
+        <v>111813938</v>
       </c>
       <c r="B4" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -943,25 +943,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540661.0419420782</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R4" t="n">
-        <v>7247564.172119373</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1047,10 +1047,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814303</v>
+        <v>111813872</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,30 +1059,35 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1090,10 +1095,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540600.641023421</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R5" t="n">
-        <v>7247517.393825463</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1144,7 +1149,6 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1163,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814212</v>
+        <v>111814152</v>
       </c>
       <c r="B6" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,21 +1183,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1206,10 +1210,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540635.9369002836</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R6" t="n">
-        <v>7247595.565451766</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1279,7 +1283,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814152</v>
+        <v>111813975</v>
       </c>
       <c r="B7" t="n">
         <v>89423</v>
@@ -1322,10 +1326,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540661.0419420782</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R7" t="n">
-        <v>7247564.172119373</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1395,10 +1399,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813938</v>
+        <v>111814135</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1407,25 +1411,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1438,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540654.849203686</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R8" t="n">
-        <v>7247498.096959669</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1511,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814119</v>
+        <v>111813707</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1527,26 +1531,31 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1554,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540683.0369185829</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R9" t="n">
-        <v>7247576.171207689</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1608,9 +1617,23 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1627,10 +1650,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111813975</v>
+        <v>111814047</v>
       </c>
       <c r="B10" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1639,25 +1662,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1670,10 +1693,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540643.7191088985</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R10" t="n">
-        <v>7247516.737328541</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1716,6 +1739,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1743,10 +1771,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111813872</v>
+        <v>111814212</v>
       </c>
       <c r="B11" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,31 +1787,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1791,10 +1814,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540557.5018987871</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R11" t="n">
-        <v>7247552.715308581</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1845,6 +1868,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1863,7 +1887,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814047</v>
+        <v>111814303</v>
       </c>
       <c r="B12" t="n">
         <v>90087</v>
@@ -1906,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540633.6855369165</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R12" t="n">
-        <v>7247516.598344535</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1952,11 +1976,6 @@
       <c r="AB12" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC12" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1984,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111813745</v>
+        <v>111814119</v>
       </c>
       <c r="B13" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2000,31 +2019,26 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2032,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540568.950047517</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R13" t="n">
-        <v>7247601.73830481</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2086,23 +2100,9 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ13" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO13" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2255,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825098</v>
+        <v>111825340</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,28 +2267,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2348,7 +2352,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2360,21 +2364,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2391,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825340</v>
+        <v>111825158</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2407,28 +2396,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2488,7 +2473,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2500,6 +2485,21 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2516,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111825158</v>
+        <v>111825098</v>
       </c>
       <c r="B17" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,25 +2528,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2772,10 +2772,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111928182</v>
+        <v>111927932</v>
       </c>
       <c r="B19" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2784,35 +2784,30 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2820,10 +2815,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540577.6309829853</v>
+        <v>540603.1302205247</v>
       </c>
       <c r="R19" t="n">
-        <v>7247608.958296298</v>
+        <v>7247579.240674701</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2874,6 +2869,7 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2892,10 +2888,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111927932</v>
+        <v>111929133</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2904,25 +2900,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2935,10 +2931,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540603.1302205247</v>
+        <v>540588.7198738471</v>
       </c>
       <c r="R20" t="n">
-        <v>7247579.240674701</v>
+        <v>7247593.241230446</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -3008,10 +3004,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111928767</v>
+        <v>111928641</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3024,31 +3020,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3056,10 +3047,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540472.3994548032</v>
+        <v>540501.4762728031</v>
       </c>
       <c r="R21" t="n">
-        <v>7247568.663664464</v>
+        <v>7247612.91764803</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3104,12 +3095,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
+        </is>
+      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3128,10 +3125,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111928864</v>
+        <v>111928767</v>
       </c>
       <c r="B22" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3144,26 +3141,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3171,10 +3173,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>540588.0224133076</v>
+        <v>540472.3994548032</v>
       </c>
       <c r="R22" t="n">
-        <v>7247583.208085935</v>
+        <v>7247568.663664464</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3225,7 +3227,6 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3360,10 +3361,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111929133</v>
+        <v>111928807</v>
       </c>
       <c r="B24" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3376,26 +3377,31 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3403,10 +3409,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540588.7198738471</v>
+        <v>540499.9912827559</v>
       </c>
       <c r="R24" t="n">
-        <v>7247593.241230446</v>
+        <v>7247569.044437566</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3457,7 +3463,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3476,10 +3481,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111927812</v>
+        <v>111928864</v>
       </c>
       <c r="B25" t="n">
-        <v>85715</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3492,21 +3497,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3519,10 +3524,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>540626.0944185018</v>
+        <v>540588.0224133076</v>
       </c>
       <c r="R25" t="n">
-        <v>7247581.646826447</v>
+        <v>7247583.208085935</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3576,26 +3581,6 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3728,7 +3713,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111928819</v>
+        <v>111928182</v>
       </c>
       <c r="B27" t="n">
         <v>56398</v>
@@ -3766,7 +3751,7 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr">
         <is>
-          <t>äldre spår</t>
+          <t>färska spår</t>
         </is>
       </c>
       <c r="N27" t="inlineStr"/>
@@ -3776,10 +3761,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540499.9912827559</v>
+        <v>540577.6309829853</v>
       </c>
       <c r="R27" t="n">
-        <v>7247569.044437566</v>
+        <v>7247608.958296298</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3848,10 +3833,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111928641</v>
+        <v>111927812</v>
       </c>
       <c r="B28" t="n">
-        <v>77515</v>
+        <v>85715</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3864,21 +3849,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>510</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3891,10 +3876,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540501.4762728031</v>
+        <v>540626.0944185018</v>
       </c>
       <c r="R28" t="n">
-        <v>7247612.91764803</v>
+        <v>7247581.646826447</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3939,11 +3924,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Förekommer i området</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
@@ -3953,6 +3933,26 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813785</v>
+        <v>111813975</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540570.9514120822</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R2" t="n">
-        <v>7247577.960198429</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813745</v>
+        <v>111813938</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,31 +812,26 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,10 +839,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540568.950047517</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R3" t="n">
-        <v>7247601.73830481</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,23 +893,9 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -931,10 +912,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813938</v>
+        <v>111813707</v>
       </c>
       <c r="B4" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -947,26 +928,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -974,10 +960,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540654.849203686</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R4" t="n">
-        <v>7247498.096959669</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1028,9 +1014,23 @@
       <c r="AE4" t="b">
         <v>0</v>
       </c>
-      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1047,10 +1047,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111813872</v>
+        <v>111814047</v>
       </c>
       <c r="B5" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,35 +1059,30 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1095,10 +1090,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540557.5018987871</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R5" t="n">
-        <v>7247552.715308581</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1143,12 +1138,18 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="AC5" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD5" t="b">
         <v>0</v>
       </c>
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1167,10 +1168,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814152</v>
+        <v>111814303</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1180,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1210,10 +1211,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540661.0419420782</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R6" t="n">
-        <v>7247564.172119373</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,7 +1284,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111813975</v>
+        <v>111814119</v>
       </c>
       <c r="B7" t="n">
         <v>89423</v>
@@ -1326,10 +1327,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540643.7191088985</v>
+        <v>540683.0369185829</v>
       </c>
       <c r="R7" t="n">
-        <v>7247516.737328541</v>
+        <v>7247576.171207689</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1399,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814135</v>
+        <v>111814152</v>
       </c>
       <c r="B8" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1411,25 +1412,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1515,7 +1516,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111813707</v>
+        <v>111813745</v>
       </c>
       <c r="B9" t="n">
         <v>56398</v>
@@ -1563,10 +1564,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540647.037727406</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R9" t="n">
-        <v>7247579.013394679</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1650,10 +1651,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814047</v>
+        <v>111813785</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1662,25 +1663,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1693,10 +1694,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540633.6855369165</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R10" t="n">
-        <v>7247516.598344535</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1739,11 +1740,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1887,10 +1883,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111814303</v>
+        <v>111813872</v>
       </c>
       <c r="B12" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1899,30 +1895,35 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1930,10 +1931,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540600.641023421</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R12" t="n">
-        <v>7247517.393825463</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1984,7 +1985,6 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
       </c>
@@ -2003,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814119</v>
+        <v>111814135</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,25 +2015,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540683.0369185829</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R13" t="n">
-        <v>7247576.171207689</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825245</v>
+        <v>111825340</v>
       </c>
       <c r="B14" t="n">
-        <v>89745</v>
+        <v>89686</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,28 +2131,32 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2062</v>
+        <v>658</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Niemelä</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2212,7 +2216,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2224,21 +2228,6 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ14" t="inlineStr">
-        <is>
-          <t>ullticka</t>
-        </is>
-      </c>
-      <c r="AK14" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
-      </c>
-      <c r="AO14" t="inlineStr">
-        <is>
-          <t>Phellinidium ferrugineofuscum</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2255,10 +2244,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825340</v>
+        <v>111825098</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,32 +2256,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2352,7 +2337,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2364,6 +2349,21 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2380,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825158</v>
+        <v>111825245</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,25 +2392,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111825098</v>
+        <v>111825158</v>
       </c>
       <c r="B17" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,25 +2528,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2772,7 +2772,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111927932</v>
+        <v>111928149</v>
       </c>
       <c r="B19" t="n">
         <v>90087</v>
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540603.1302205247</v>
+        <v>540584.6159017456</v>
       </c>
       <c r="R19" t="n">
-        <v>7247579.240674701</v>
+        <v>7247527.195818389</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -3245,10 +3245,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111928149</v>
+        <v>111928807</v>
       </c>
       <c r="B23" t="n">
-        <v>90087</v>
+        <v>56398</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3257,30 +3257,35 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3298</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3288,10 +3293,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>540584.6159017456</v>
+        <v>540499.9912827559</v>
       </c>
       <c r="R23" t="n">
-        <v>7247527.195818389</v>
+        <v>7247569.044437566</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3342,7 +3347,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3361,10 +3365,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111928807</v>
+        <v>111927932</v>
       </c>
       <c r="B24" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3373,35 +3377,30 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
@@ -3409,10 +3408,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540499.9912827559</v>
+        <v>540603.1302205247</v>
       </c>
       <c r="R24" t="n">
-        <v>7247569.044437566</v>
+        <v>7247579.240674701</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3463,6 +3462,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111928864</v>
+        <v>111927812</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3497,21 +3497,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3524,10 +3524,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>540588.0224133076</v>
+        <v>540626.0944185018</v>
       </c>
       <c r="R25" t="n">
-        <v>7247583.208085935</v>
+        <v>7247581.646826447</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3581,6 +3581,26 @@
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL25" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3597,10 +3617,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111928431</v>
+        <v>111928182</v>
       </c>
       <c r="B26" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3613,26 +3633,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3640,10 +3665,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>540531.3567734783</v>
+        <v>540577.6309829853</v>
       </c>
       <c r="R26" t="n">
-        <v>7247629.200666801</v>
+        <v>7247608.958296298</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3694,7 +3719,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3713,10 +3737,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111928182</v>
+        <v>111928431</v>
       </c>
       <c r="B27" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3729,31 +3753,26 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
@@ -3761,10 +3780,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540577.6309829853</v>
+        <v>540531.3567734783</v>
       </c>
       <c r="R27" t="n">
-        <v>7247608.958296298</v>
+        <v>7247629.200666801</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3815,6 +3834,7 @@
       <c r="AE27" t="b">
         <v>0</v>
       </c>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="b">
         <v>0</v>
       </c>
@@ -3833,10 +3853,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111927812</v>
+        <v>111928864</v>
       </c>
       <c r="B28" t="n">
-        <v>85715</v>
+        <v>89405</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3849,21 +3869,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>510</v>
+        <v>1202</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3876,10 +3896,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540626.0944185018</v>
+        <v>540588.0224133076</v>
       </c>
       <c r="R28" t="n">
-        <v>7247581.646826447</v>
+        <v>7247583.208085935</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3933,26 +3953,6 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813975</v>
+        <v>111813785</v>
       </c>
       <c r="B2" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540643.7191088985</v>
+        <v>540570.9514120822</v>
       </c>
       <c r="R2" t="n">
-        <v>7247516.737328541</v>
+        <v>7247577.960198429</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -796,10 +796,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813938</v>
+        <v>111813745</v>
       </c>
       <c r="B3" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,26 +812,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -839,10 +844,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540654.849203686</v>
+        <v>540568.950047517</v>
       </c>
       <c r="R3" t="n">
-        <v>7247498.096959669</v>
+        <v>7247601.73830481</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -893,9 +898,23 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -912,7 +931,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813707</v>
+        <v>111813872</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -960,10 +979,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540647.037727406</v>
+        <v>540557.5018987871</v>
       </c>
       <c r="R4" t="n">
-        <v>7247579.013394679</v>
+        <v>7247552.715308581</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1016,21 +1035,6 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1047,10 +1051,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814047</v>
+        <v>111814212</v>
       </c>
       <c r="B5" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1059,25 +1063,25 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
@@ -1090,10 +1094,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540633.6855369165</v>
+        <v>540635.9369002836</v>
       </c>
       <c r="R5" t="n">
-        <v>7247516.598344535</v>
+        <v>7247595.565451766</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1136,11 +1140,6 @@
       <c r="AB5" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC5" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1168,10 +1167,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814303</v>
+        <v>111814152</v>
       </c>
       <c r="B6" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,25 +1179,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1211,10 +1210,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540600.641023421</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R6" t="n">
-        <v>7247517.393825463</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1400,7 +1399,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111814152</v>
+        <v>111813975</v>
       </c>
       <c r="B8" t="n">
         <v>89423</v>
@@ -1443,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540661.0419420782</v>
+        <v>540643.7191088985</v>
       </c>
       <c r="R8" t="n">
-        <v>7247564.172119373</v>
+        <v>7247516.737328541</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1516,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111813745</v>
+        <v>111814135</v>
       </c>
       <c r="B9" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1528,35 +1527,30 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
@@ -1564,10 +1558,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540568.950047517</v>
+        <v>540661.0419420782</v>
       </c>
       <c r="R9" t="n">
-        <v>7247601.73830481</v>
+        <v>7247564.172119373</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1618,23 +1612,9 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
+      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ9" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO9" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT9" t="inlineStr"/>
       <c r="AW9" t="inlineStr">
@@ -1651,10 +1631,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111813785</v>
+        <v>111814303</v>
       </c>
       <c r="B10" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1663,25 +1643,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1694,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540570.9514120822</v>
+        <v>540600.641023421</v>
       </c>
       <c r="R10" t="n">
-        <v>7247577.960198429</v>
+        <v>7247517.393825463</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1767,10 +1747,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814212</v>
+        <v>111814047</v>
       </c>
       <c r="B11" t="n">
-        <v>89405</v>
+        <v>90087</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1779,25 +1759,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>3298</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1810,10 +1790,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540635.9369002836</v>
+        <v>540633.6855369165</v>
       </c>
       <c r="R11" t="n">
-        <v>7247595.565451766</v>
+        <v>7247516.598344535</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1856,6 +1836,11 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC11" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1883,7 +1868,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111813872</v>
+        <v>111813707</v>
       </c>
       <c r="B12" t="n">
         <v>56398</v>
@@ -1931,10 +1916,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540557.5018987871</v>
+        <v>540647.037727406</v>
       </c>
       <c r="R12" t="n">
-        <v>7247552.715308581</v>
+        <v>7247579.013394679</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1987,6 +1972,21 @@
       </c>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2003,10 +2003,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814135</v>
+        <v>111813938</v>
       </c>
       <c r="B13" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2015,25 +2015,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540661.0419420782</v>
+        <v>540654.849203686</v>
       </c>
       <c r="R13" t="n">
-        <v>7247564.172119373</v>
+        <v>7247498.096959669</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825340</v>
+        <v>111825098</v>
       </c>
       <c r="B14" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,32 +2131,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
@@ -2216,7 +2212,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2228,6 +2224,21 @@
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2244,10 +2255,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825098</v>
+        <v>111825340</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2256,28 +2267,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2337,7 +2352,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2349,21 +2364,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2380,10 +2380,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825245</v>
+        <v>111825158</v>
       </c>
       <c r="B16" t="n">
-        <v>89745</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2392,25 +2392,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2062</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ulltickeporing</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Skeletocutis brevispora</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
-          <t>ullticka</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT16" t="inlineStr"/>
@@ -2516,10 +2516,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>111825158</v>
+        <v>111825245</v>
       </c>
       <c r="B17" t="n">
-        <v>89405</v>
+        <v>89745</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2528,25 +2528,25 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>2062</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Ulltickeporing</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Skeletocutis brevispora</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="AC17" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt exemplar. Kollekt tog och torkades, gulnade.</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2624,17 +2624,17 @@
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>ullticka</t>
         </is>
       </c>
       <c r="AK17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AO17" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="AT17" t="inlineStr"/>
@@ -2772,7 +2772,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111928149</v>
+        <v>111927932</v>
       </c>
       <c r="B19" t="n">
         <v>90087</v>
@@ -2815,10 +2815,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540584.6159017456</v>
+        <v>540603.1302205247</v>
       </c>
       <c r="R19" t="n">
-        <v>7247527.195818389</v>
+        <v>7247579.240674701</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2888,10 +2888,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111929133</v>
+        <v>111928182</v>
       </c>
       <c r="B20" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2904,26 +2904,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2931,10 +2936,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540588.7198738471</v>
+        <v>540577.6309829853</v>
       </c>
       <c r="R20" t="n">
-        <v>7247593.241230446</v>
+        <v>7247608.958296298</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2985,7 +2990,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3004,10 +3008,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111928641</v>
+        <v>111928807</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3020,26 +3024,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3047,10 +3056,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540501.4762728031</v>
+        <v>540499.9912827559</v>
       </c>
       <c r="R21" t="n">
-        <v>7247612.91764803</v>
+        <v>7247569.044437566</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3095,18 +3104,12 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Förekommer i området</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3125,10 +3128,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111928767</v>
+        <v>111928641</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3141,31 +3144,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3173,10 +3171,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>540472.3994548032</v>
+        <v>540501.4762728031</v>
       </c>
       <c r="R22" t="n">
-        <v>7247568.663664464</v>
+        <v>7247612.91764803</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3221,12 +3219,18 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
+        </is>
+      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3245,10 +3249,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111928807</v>
+        <v>111928431</v>
       </c>
       <c r="B23" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3261,31 +3265,26 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3293,10 +3292,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>540499.9912827559</v>
+        <v>540531.3567734783</v>
       </c>
       <c r="R23" t="n">
-        <v>7247569.044437566</v>
+        <v>7247629.200666801</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3347,6 +3346,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3365,7 +3365,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111927932</v>
+        <v>111928149</v>
       </c>
       <c r="B24" t="n">
         <v>90087</v>
@@ -3408,10 +3408,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540603.1302205247</v>
+        <v>540584.6159017456</v>
       </c>
       <c r="R24" t="n">
-        <v>7247579.240674701</v>
+        <v>7247527.195818389</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3481,10 +3481,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111927812</v>
+        <v>111928767</v>
       </c>
       <c r="B25" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3497,26 +3497,31 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3524,10 +3529,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>540626.0944185018</v>
+        <v>540472.3994548032</v>
       </c>
       <c r="R25" t="n">
-        <v>7247581.646826447</v>
+        <v>7247568.663664464</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3578,29 +3583,8 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL25" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3617,10 +3601,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111928182</v>
+        <v>111928864</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3633,31 +3617,26 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3665,10 +3644,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>540577.6309829853</v>
+        <v>540588.0224133076</v>
       </c>
       <c r="R26" t="n">
-        <v>7247608.958296298</v>
+        <v>7247583.208085935</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3719,6 +3698,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3737,7 +3717,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111928431</v>
+        <v>111929133</v>
       </c>
       <c r="B27" t="n">
         <v>89423</v>
@@ -3780,10 +3760,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540531.3567734783</v>
+        <v>540588.7198738471</v>
       </c>
       <c r="R27" t="n">
-        <v>7247629.200666801</v>
+        <v>7247593.241230446</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3853,10 +3833,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111928864</v>
+        <v>111927812</v>
       </c>
       <c r="B28" t="n">
-        <v>89405</v>
+        <v>85715</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3869,21 +3849,21 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1202</v>
+        <v>510</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3896,10 +3876,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540588.0224133076</v>
+        <v>540626.0944185018</v>
       </c>
       <c r="R28" t="n">
-        <v>7247583.208085935</v>
+        <v>7247581.646826447</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3953,6 +3933,26 @@
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ28" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK28" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL28" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO28" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>111813785</v>
+        <v>111813872</v>
       </c>
       <c r="B2" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,26 +696,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
@@ -723,10 +728,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>540570.9514120822</v>
+        <v>540558</v>
       </c>
       <c r="R2" t="n">
-        <v>7247577.960198429</v>
+        <v>7247553</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -777,7 +782,6 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
-      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -796,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111813745</v>
+        <v>111814135</v>
       </c>
       <c r="B3" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -808,35 +812,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
@@ -844,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540568.950047517</v>
+        <v>540661</v>
       </c>
       <c r="R3" t="n">
-        <v>7247601.73830481</v>
+        <v>7247564</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -898,23 +897,9 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
+      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ3" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO3" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT3" t="inlineStr"/>
       <c r="AW3" t="inlineStr">
@@ -931,7 +916,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813872</v>
+        <v>111813745</v>
       </c>
       <c r="B4" t="n">
         <v>56398</v>
@@ -979,10 +964,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540557.5018987871</v>
+        <v>540569</v>
       </c>
       <c r="R4" t="n">
-        <v>7247552.715308581</v>
+        <v>7247602</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,6 +1020,21 @@
       </c>
       <c r="AG4" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1094,10 +1094,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540635.9369002836</v>
+        <v>540636</v>
       </c>
       <c r="R5" t="n">
-        <v>7247595.565451766</v>
+        <v>7247596</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814152</v>
+        <v>111814119</v>
       </c>
       <c r="B6" t="n">
         <v>89423</v>
@@ -1210,10 +1210,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540661.0419420782</v>
+        <v>540683</v>
       </c>
       <c r="R6" t="n">
-        <v>7247564.172119373</v>
+        <v>7247576</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,10 +1283,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814119</v>
+        <v>111814303</v>
       </c>
       <c r="B7" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1295,25 +1295,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1326,10 +1326,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540683.0369185829</v>
+        <v>540601</v>
       </c>
       <c r="R7" t="n">
-        <v>7247576.171207689</v>
+        <v>7247517</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1399,10 +1399,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813975</v>
+        <v>111813785</v>
       </c>
       <c r="B8" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1415,21 +1415,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540643.7191088985</v>
+        <v>540571</v>
       </c>
       <c r="R8" t="n">
-        <v>7247516.737328541</v>
+        <v>7247578</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1515,10 +1515,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111814135</v>
+        <v>111813938</v>
       </c>
       <c r="B9" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1527,25 +1527,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1558,10 +1558,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540661.0419420782</v>
+        <v>540655</v>
       </c>
       <c r="R9" t="n">
-        <v>7247564.172119373</v>
+        <v>7247498</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814303</v>
+        <v>111814047</v>
       </c>
       <c r="B10" t="n">
         <v>90087</v>
@@ -1674,10 +1674,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540600.641023421</v>
+        <v>540634</v>
       </c>
       <c r="R10" t="n">
-        <v>7247517.393825463</v>
+        <v>7247517</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1720,6 +1720,11 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>11:00</t>
+        </is>
+      </c>
+      <c r="AC10" t="inlineStr">
+        <is>
+          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1747,10 +1752,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111814047</v>
+        <v>111813975</v>
       </c>
       <c r="B11" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1759,25 +1764,25 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1790,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540633.6855369165</v>
+        <v>540644</v>
       </c>
       <c r="R11" t="n">
-        <v>7247516.598344535</v>
+        <v>7247517</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1836,11 +1841,6 @@
       <c r="AB11" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC11" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1916,10 +1916,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540647.037727406</v>
+        <v>540647</v>
       </c>
       <c r="R12" t="n">
-        <v>7247579.013394679</v>
+        <v>7247579</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111813938</v>
+        <v>111814152</v>
       </c>
       <c r="B13" t="n">
         <v>89423</v>
@@ -2046,10 +2046,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540654.849203686</v>
+        <v>540661</v>
       </c>
       <c r="R13" t="n">
-        <v>7247498.096959669</v>
+        <v>7247564</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825098</v>
+        <v>111825158</v>
       </c>
       <c r="B14" t="n">
-        <v>89845</v>
+        <v>89405</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1209</v>
+        <v>1202</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2162,10 +2162,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>540641.3816113799</v>
+        <v>540641</v>
       </c>
       <c r="R14" t="n">
-        <v>7247564.734995849</v>
+        <v>7247565</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -2195,24 +2195,14 @@
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2255,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825340</v>
+        <v>111825098</v>
       </c>
       <c r="B15" t="n">
-        <v>89686</v>
+        <v>89845</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2267,32 +2257,28 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>658</v>
+        <v>1209</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>P.Karst.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2302,10 +2288,10 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>540641.3816113799</v>
+        <v>540641</v>
       </c>
       <c r="R15" t="n">
-        <v>7247564.734995849</v>
+        <v>7247565</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2335,24 +2321,14 @@
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="Z15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA15" t="inlineStr">
         <is>
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="AB15" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2364,6 +2340,21 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2380,10 +2371,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825158</v>
+        <v>111825340</v>
       </c>
       <c r="B16" t="n">
-        <v>89405</v>
+        <v>89686</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2396,24 +2387,28 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2423,10 +2418,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>540641.3816113799</v>
+        <v>540641</v>
       </c>
       <c r="R16" t="n">
-        <v>7247564.734995849</v>
+        <v>7247565</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2456,24 +2451,14 @@
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="Z16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA16" t="inlineStr">
         <is>
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="AB16" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2485,21 +2470,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2559,10 +2529,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>540641.3816113799</v>
+        <v>540641</v>
       </c>
       <c r="R17" t="n">
-        <v>7247564.734995849</v>
+        <v>7247565</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2592,19 +2562,9 @@
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="Z17" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA17" t="inlineStr">
         <is>
           <t>2023-08-13</t>
-        </is>
-      </c>
-      <c r="AB17" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC17" t="inlineStr">
@@ -2700,10 +2660,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>540642.8745156997</v>
+        <v>540643</v>
       </c>
       <c r="R18" t="n">
-        <v>7247577.702774134</v>
+        <v>7247578</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2733,19 +2693,9 @@
           <t>2023-08-13</t>
         </is>
       </c>
-      <c r="Z18" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA18" t="inlineStr">
         <is>
           <t>2023-08-13</t>
-        </is>
-      </c>
-      <c r="AB18" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2772,10 +2722,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111927932</v>
+        <v>111929133</v>
       </c>
       <c r="B19" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2784,25 +2734,25 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2815,10 +2765,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540603.1302205247</v>
+        <v>540589</v>
       </c>
       <c r="R19" t="n">
-        <v>7247579.240674701</v>
+        <v>7247593</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2848,19 +2798,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z19" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA19" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB19" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2888,10 +2828,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111928182</v>
+        <v>111927932</v>
       </c>
       <c r="B20" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2900,35 +2840,30 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2936,10 +2871,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540577.6309829853</v>
+        <v>540603</v>
       </c>
       <c r="R20" t="n">
-        <v>7247608.958296298</v>
+        <v>7247579</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2969,27 +2904,18 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA20" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB20" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD20" t="b">
         <v>0</v>
       </c>
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -3008,10 +2934,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111928807</v>
+        <v>111928641</v>
       </c>
       <c r="B21" t="n">
-        <v>56398</v>
+        <v>77515</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -3024,31 +2950,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -3056,10 +2977,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540499.9912827559</v>
+        <v>540501</v>
       </c>
       <c r="R21" t="n">
-        <v>7247569.044437566</v>
+        <v>7247613</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3089,19 +3010,14 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z21" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA21" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB21" t="inlineStr">
-        <is>
-          <t>00:00</t>
+      <c r="AC21" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
         </is>
       </c>
       <c r="AD21" t="b">
@@ -3110,6 +3026,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3128,10 +3045,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111928641</v>
+        <v>111928767</v>
       </c>
       <c r="B22" t="n">
-        <v>77515</v>
+        <v>56398</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3144,26 +3061,31 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3171,10 +3093,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>540501.4762728031</v>
+        <v>540472</v>
       </c>
       <c r="R22" t="n">
-        <v>7247612.91764803</v>
+        <v>7247569</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3204,33 +3126,17 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA22" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB22" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Förekommer i området</t>
-        </is>
-      </c>
       <c r="AD22" t="b">
         <v>0</v>
       </c>
       <c r="AE22" t="b">
         <v>0</v>
       </c>
-      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3292,10 +3198,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>540531.3567734783</v>
+        <v>540531</v>
       </c>
       <c r="R23" t="n">
-        <v>7247629.200666801</v>
+        <v>7247629</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3325,19 +3231,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA23" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB23" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3365,10 +3261,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111928149</v>
+        <v>111927812</v>
       </c>
       <c r="B24" t="n">
-        <v>90087</v>
+        <v>85715</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3377,25 +3273,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3298</v>
+        <v>510</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3408,10 +3304,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540584.6159017456</v>
+        <v>540626</v>
       </c>
       <c r="R24" t="n">
-        <v>7247527.195818389</v>
+        <v>7247582</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3441,19 +3337,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z24" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA24" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB24" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3465,6 +3351,26 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL24" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3481,10 +3387,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111928767</v>
+        <v>111928864</v>
       </c>
       <c r="B25" t="n">
-        <v>56398</v>
+        <v>89405</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3497,31 +3403,26 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>100109</v>
+        <v>1202</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
@@ -3529,10 +3430,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>540472.3994548032</v>
+        <v>540588</v>
       </c>
       <c r="R25" t="n">
-        <v>7247568.663664464</v>
+        <v>7247583</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3562,27 +3463,18 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB25" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD25" t="b">
         <v>0</v>
       </c>
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3601,10 +3493,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111928864</v>
+        <v>111928182</v>
       </c>
       <c r="B26" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3617,26 +3509,31 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3644,10 +3541,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>540588.0224133076</v>
+        <v>540578</v>
       </c>
       <c r="R26" t="n">
-        <v>7247583.208085935</v>
+        <v>7247609</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3677,28 +3574,17 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA26" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB26" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD26" t="b">
         <v>0</v>
       </c>
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3717,10 +3603,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111929133</v>
+        <v>111928149</v>
       </c>
       <c r="B27" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3729,25 +3615,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3760,10 +3646,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540588.7198738471</v>
+        <v>540585</v>
       </c>
       <c r="R27" t="n">
-        <v>7247593.241230446</v>
+        <v>7247527</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3793,19 +3679,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z27" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA27" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB27" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD27" t="b">
@@ -3833,10 +3709,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111927812</v>
+        <v>111928819</v>
       </c>
       <c r="B28" t="n">
-        <v>85715</v>
+        <v>56398</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3849,26 +3725,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>510</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3876,10 +3757,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540626.0944185018</v>
+        <v>540500</v>
       </c>
       <c r="R28" t="n">
-        <v>7247581.646826447</v>
+        <v>7247569</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3909,50 +3790,19 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL28" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -4012,10 +3862,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>540686.0154365924</v>
+        <v>540686</v>
       </c>
       <c r="R29" t="n">
-        <v>7247572.453681136</v>
+        <v>7247572</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4045,19 +3895,9 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2023-08-14</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD29" t="b">

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -800,10 +800,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>111814135</v>
+        <v>111814119</v>
       </c>
       <c r="B3" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -812,25 +812,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -843,10 +843,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>540661</v>
+        <v>540683</v>
       </c>
       <c r="R3" t="n">
-        <v>7247564</v>
+        <v>7247576</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -916,10 +916,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>111813745</v>
+        <v>111814047</v>
       </c>
       <c r="B4" t="n">
-        <v>56398</v>
+        <v>90087</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -928,35 +928,30 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N4" t="inlineStr"/>
       <c r="P4" t="inlineStr">
         <is>
@@ -964,10 +959,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>540569</v>
+        <v>540634</v>
       </c>
       <c r="R4" t="n">
-        <v>7247602</v>
+        <v>7247517</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1012,29 +1007,20 @@
           <t>11:00</t>
         </is>
       </c>
+      <c r="AC4" t="inlineStr">
+        <is>
+          <t>rikligt</t>
+        </is>
+      </c>
       <c r="AD4" t="b">
         <v>0</v>
       </c>
       <c r="AE4" t="b">
         <v>0</v>
       </c>
+      <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO4" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT4" t="inlineStr"/>
       <c r="AW4" t="inlineStr">
@@ -1051,10 +1037,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>111814212</v>
+        <v>111813745</v>
       </c>
       <c r="B5" t="n">
-        <v>89405</v>
+        <v>56398</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1067,26 +1053,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1202</v>
+        <v>100109</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
@@ -1094,10 +1085,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>540636</v>
+        <v>540569</v>
       </c>
       <c r="R5" t="n">
-        <v>7247596</v>
+        <v>7247602</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1148,9 +1139,23 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
-      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT5" t="inlineStr"/>
       <c r="AW5" t="inlineStr">
@@ -1167,10 +1172,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>111814119</v>
+        <v>111814303</v>
       </c>
       <c r="B6" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1179,25 +1184,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1210,10 +1215,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>540683</v>
+        <v>540601</v>
       </c>
       <c r="R6" t="n">
-        <v>7247576</v>
+        <v>7247517</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1283,10 +1288,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>111814303</v>
+        <v>111814152</v>
       </c>
       <c r="B7" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1295,25 +1300,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1326,10 +1331,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>540601</v>
+        <v>540661</v>
       </c>
       <c r="R7" t="n">
-        <v>7247517</v>
+        <v>7247564</v>
       </c>
       <c r="S7" t="n">
         <v>10</v>
@@ -1399,10 +1404,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>111813785</v>
+        <v>111813938</v>
       </c>
       <c r="B8" t="n">
-        <v>89405</v>
+        <v>89423</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1415,21 +1420,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1202</v>
+        <v>5432</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1442,10 +1447,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>540571</v>
+        <v>540655</v>
       </c>
       <c r="R8" t="n">
-        <v>7247578</v>
+        <v>7247498</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1515,10 +1520,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>111813938</v>
+        <v>111814135</v>
       </c>
       <c r="B9" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1527,25 +1532,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1558,10 +1563,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>540655</v>
+        <v>540661</v>
       </c>
       <c r="R9" t="n">
-        <v>7247498</v>
+        <v>7247564</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1631,10 +1636,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>111814047</v>
+        <v>111814212</v>
       </c>
       <c r="B10" t="n">
-        <v>90087</v>
+        <v>89405</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1643,25 +1648,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1674,10 +1679,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>540634</v>
+        <v>540636</v>
       </c>
       <c r="R10" t="n">
-        <v>7247517</v>
+        <v>7247596</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1720,11 +1725,6 @@
       <c r="AB10" t="inlineStr">
         <is>
           <t>11:00</t>
-        </is>
-      </c>
-      <c r="AC10" t="inlineStr">
-        <is>
-          <t>rikligt</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1752,10 +1752,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>111813975</v>
+        <v>111813785</v>
       </c>
       <c r="B11" t="n">
-        <v>89423</v>
+        <v>89405</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1768,21 +1768,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>5432</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1795,10 +1795,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>540644</v>
+        <v>540571</v>
       </c>
       <c r="R11" t="n">
-        <v>7247517</v>
+        <v>7247578</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1868,10 +1868,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111813707</v>
+        <v>111813975</v>
       </c>
       <c r="B12" t="n">
-        <v>56398</v>
+        <v>89423</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1884,31 +1884,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1916,10 +1911,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>540647</v>
+        <v>540644</v>
       </c>
       <c r="R12" t="n">
-        <v>7247579</v>
+        <v>7247517</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1970,23 +1965,9 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2003,10 +1984,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111814152</v>
+        <v>111813707</v>
       </c>
       <c r="B13" t="n">
-        <v>89423</v>
+        <v>56398</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2019,26 +2000,31 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
@@ -2046,10 +2032,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>540661</v>
+        <v>540647</v>
       </c>
       <c r="R13" t="n">
-        <v>7247564</v>
+        <v>7247579</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2100,9 +2086,23 @@
       <c r="AE13" t="b">
         <v>0</v>
       </c>
-      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT13" t="inlineStr"/>
       <c r="AW13" t="inlineStr">
@@ -2119,10 +2119,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111825158</v>
+        <v>111825098</v>
       </c>
       <c r="B14" t="n">
-        <v>89405</v>
+        <v>89845</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2131,25 +2131,25 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1202</v>
+        <v>1209</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2202,7 +2202,7 @@
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>Med ulltickeporing</t>
+          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2245,10 +2245,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>111825098</v>
+        <v>111825340</v>
       </c>
       <c r="B15" t="n">
-        <v>89845</v>
+        <v>89686</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2257,28 +2257,32 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1209</v>
+        <v>658</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr"/>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
@@ -2328,7 +2332,7 @@
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>Färskt. På granlåga med minst 25 rosentickor, ullticka och ulltickeporing.  Någon gul slemsvamp? på rynkskinnet</t>
+          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2340,21 +2344,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2371,10 +2360,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>111825340</v>
+        <v>111825158</v>
       </c>
       <c r="B16" t="n">
-        <v>89686</v>
+        <v>89405</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2387,28 +2376,24 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
@@ -2458,7 +2443,7 @@
       </c>
       <c r="AC16" t="inlineStr">
         <is>
-          <t>Minst 25 rosentickor på denna låga. Ullticka, ulltickeporing, rynkskinn på samma låga</t>
+          <t>Med ulltickeporing</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2470,6 +2455,21 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2615,7 +2615,7 @@
         <v>111905851</v>
       </c>
       <c r="B18" t="n">
-        <v>56398</v>
+        <v>56430</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2722,10 +2722,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111929133</v>
+        <v>111928819</v>
       </c>
       <c r="B19" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2738,26 +2738,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2765,10 +2770,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540589</v>
+        <v>540500</v>
       </c>
       <c r="R19" t="n">
-        <v>7247593</v>
+        <v>7247569</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2809,7 +2814,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2828,10 +2832,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111927932</v>
+        <v>111928431</v>
       </c>
       <c r="B20" t="n">
-        <v>90087</v>
+        <v>89557</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2840,25 +2844,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2871,10 +2875,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540603</v>
+        <v>540531</v>
       </c>
       <c r="R20" t="n">
-        <v>7247579</v>
+        <v>7247629</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2934,10 +2938,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111928641</v>
+        <v>111928182</v>
       </c>
       <c r="B21" t="n">
-        <v>77515</v>
+        <v>56430</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2950,26 +2954,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2977,10 +2986,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540501</v>
+        <v>540578</v>
       </c>
       <c r="R21" t="n">
-        <v>7247613</v>
+        <v>7247609</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3015,18 +3024,12 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AC21" t="inlineStr">
-        <is>
-          <t>Förekommer i området</t>
-        </is>
-      </c>
       <c r="AD21" t="b">
         <v>0</v>
       </c>
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3045,10 +3048,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111928767</v>
+        <v>111929133</v>
       </c>
       <c r="B22" t="n">
-        <v>56398</v>
+        <v>89557</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3061,31 +3064,26 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N22" t="inlineStr"/>
       <c r="P22" t="inlineStr">
         <is>
@@ -3093,10 +3091,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>540472</v>
+        <v>540589</v>
       </c>
       <c r="R22" t="n">
-        <v>7247569</v>
+        <v>7247593</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3137,6 +3135,7 @@
       <c r="AE22" t="b">
         <v>0</v>
       </c>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
       </c>
@@ -3155,10 +3154,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111928431</v>
+        <v>111928767</v>
       </c>
       <c r="B23" t="n">
-        <v>89423</v>
+        <v>56430</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3171,26 +3170,31 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3198,10 +3202,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>540531</v>
+        <v>540472</v>
       </c>
       <c r="R23" t="n">
-        <v>7247629</v>
+        <v>7247569</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3242,7 +3246,6 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
-      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3264,7 +3267,7 @@
         <v>111927812</v>
       </c>
       <c r="B24" t="n">
-        <v>85715</v>
+        <v>85836</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3390,7 +3393,7 @@
         <v>111928864</v>
       </c>
       <c r="B25" t="n">
-        <v>89405</v>
+        <v>89539</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3493,10 +3496,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111928182</v>
+        <v>111928149</v>
       </c>
       <c r="B26" t="n">
-        <v>56398</v>
+        <v>90221</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3505,35 +3508,30 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
@@ -3541,10 +3539,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>540578</v>
+        <v>540585</v>
       </c>
       <c r="R26" t="n">
-        <v>7247609</v>
+        <v>7247527</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3585,6 +3583,7 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3603,10 +3602,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111928149</v>
+        <v>111927932</v>
       </c>
       <c r="B27" t="n">
-        <v>90087</v>
+        <v>90221</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3646,10 +3645,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540585</v>
+        <v>540603</v>
       </c>
       <c r="R27" t="n">
-        <v>7247527</v>
+        <v>7247579</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3709,10 +3708,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111928819</v>
+        <v>111928641</v>
       </c>
       <c r="B28" t="n">
-        <v>56398</v>
+        <v>77636</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3725,31 +3724,26 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3757,10 +3751,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540500</v>
+        <v>540501</v>
       </c>
       <c r="R28" t="n">
-        <v>7247569</v>
+        <v>7247613</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3795,12 +3789,18 @@
           <t>2023-08-14</t>
         </is>
       </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
+        </is>
+      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>111939435</v>
       </c>
       <c r="B29" t="n">
-        <v>89423</v>
+        <v>89557</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>

--- a/artfynd/A 38406-2018.xlsx
+++ b/artfynd/A 38406-2018.xlsx
@@ -2722,7 +2722,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111928819</v>
+        <v>111928767</v>
       </c>
       <c r="B19" t="n">
         <v>56430</v>
@@ -2770,7 +2770,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>540500</v>
+        <v>540472</v>
       </c>
       <c r="R19" t="n">
         <v>7247569</v>
@@ -2832,10 +2832,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111928431</v>
+        <v>111928807</v>
       </c>
       <c r="B20" t="n">
-        <v>89557</v>
+        <v>56430</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2848,26 +2848,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5432</v>
+        <v>100109</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2875,10 +2880,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>540531</v>
+        <v>540500</v>
       </c>
       <c r="R20" t="n">
-        <v>7247629</v>
+        <v>7247569</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2919,7 +2924,6 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2938,10 +2942,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111928182</v>
+        <v>111928431</v>
       </c>
       <c r="B21" t="n">
-        <v>56430</v>
+        <v>89571</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2954,31 +2958,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100109</v>
+        <v>5432</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2986,10 +2985,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>540578</v>
+        <v>540531</v>
       </c>
       <c r="R21" t="n">
-        <v>7247609</v>
+        <v>7247629</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3030,6 +3029,7 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
       </c>
@@ -3048,10 +3048,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111929133</v>
+        <v>111927812</v>
       </c>
       <c r="B22" t="n">
-        <v>89557</v>
+        <v>85850</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -3064,21 +3064,21 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5432</v>
+        <v>510</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Doftskinn</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystostereum murrayi</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
         </is>
       </c>
       <c r="I22" t="inlineStr"/>
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>540589</v>
+        <v>540626</v>
       </c>
       <c r="R22" t="n">
-        <v>7247593</v>
+        <v>7247582</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3138,6 +3138,26 @@
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AL22" t="inlineStr">
+        <is>
+          <t>Granlåga</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Picea abies # Granlåga</t>
+        </is>
       </c>
       <c r="AT22" t="inlineStr"/>
       <c r="AW22" t="inlineStr">
@@ -3154,10 +3174,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111928767</v>
+        <v>111927932</v>
       </c>
       <c r="B23" t="n">
-        <v>56430</v>
+        <v>90235</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3166,35 +3186,30 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>100109</v>
+        <v>3298</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>äldre spår</t>
-        </is>
-      </c>
       <c r="N23" t="inlineStr"/>
       <c r="P23" t="inlineStr">
         <is>
@@ -3202,10 +3217,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>540472</v>
+        <v>540603</v>
       </c>
       <c r="R23" t="n">
-        <v>7247569</v>
+        <v>7247579</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3246,6 +3261,7 @@
       <c r="AE23" t="b">
         <v>0</v>
       </c>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="b">
         <v>0</v>
       </c>
@@ -3264,10 +3280,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111927812</v>
+        <v>111929133</v>
       </c>
       <c r="B24" t="n">
-        <v>85836</v>
+        <v>89571</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3280,21 +3296,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>510</v>
+        <v>5432</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Doftskinn</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Cystostereum murrayi</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Berk. &amp; M.A. Curtis.) Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3307,10 +3323,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>540626</v>
+        <v>540589</v>
       </c>
       <c r="R24" t="n">
-        <v>7247582</v>
+        <v>7247593</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3354,26 +3370,6 @@
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AL24" t="inlineStr">
-        <is>
-          <t>Granlåga</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Picea abies # Granlåga</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3390,10 +3386,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111928864</v>
+        <v>111928641</v>
       </c>
       <c r="B25" t="n">
-        <v>89539</v>
+        <v>77650</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3406,21 +3402,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3433,10 +3429,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>540588</v>
+        <v>540501</v>
       </c>
       <c r="R25" t="n">
-        <v>7247583</v>
+        <v>7247613</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3469,6 +3465,11 @@
       <c r="AA25" t="inlineStr">
         <is>
           <t>2023-08-14</t>
+        </is>
+      </c>
+      <c r="AC25" t="inlineStr">
+        <is>
+          <t>Förekommer i området</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3499,7 +3500,7 @@
         <v>111928149</v>
       </c>
       <c r="B26" t="n">
-        <v>90221</v>
+        <v>90235</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3602,10 +3603,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111927932</v>
+        <v>111928864</v>
       </c>
       <c r="B27" t="n">
-        <v>90221</v>
+        <v>89553</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3614,25 +3615,25 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3298</v>
+        <v>1202</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3645,10 +3646,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>540603</v>
+        <v>540588</v>
       </c>
       <c r="R27" t="n">
-        <v>7247579</v>
+        <v>7247583</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3708,10 +3709,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111928641</v>
+        <v>111928182</v>
       </c>
       <c r="B28" t="n">
-        <v>77636</v>
+        <v>56430</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3724,26 +3725,31 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
@@ -3751,10 +3757,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>540501</v>
+        <v>540578</v>
       </c>
       <c r="R28" t="n">
-        <v>7247613</v>
+        <v>7247609</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3789,18 +3795,12 @@
           <t>2023-08-14</t>
         </is>
       </c>
-      <c r="AC28" t="inlineStr">
-        <is>
-          <t>Förekommer i området</t>
-        </is>
-      </c>
       <c r="AD28" t="b">
         <v>0</v>
       </c>
       <c r="AE28" t="b">
         <v>0</v>
       </c>
-      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>111939435</v>
       </c>
       <c r="B29" t="n">
-        <v>89557</v>
+        <v>89571</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
